--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c86e93c0e00894/바탕 화면/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8AF2E473-EEE7-44A5-9A70-38D1F2530AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{489C2BF4-BE75-4E1A-806B-69CABDEA998F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,14 +181,6 @@
   </si>
   <si>
     <t>황병운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,9 +473,6 @@
     <t>강의번호가 없어서 과제제출이 안됨</t>
   </si>
   <si>
-    <t>대체로 문제없음</t>
-  </si>
-  <si>
     <t>문제업음</t>
   </si>
   <si>
@@ -541,18 +524,34 @@
   </si>
   <si>
     <t>진도관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체로 문제없음, 우선순위 후순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +983,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1148,7 +1153,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1342,37 +1347,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="3" width="39.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="56.5" customWidth="1"/>
-    <col min="7" max="8" width="18.69921875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.09765625" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="8" customWidth="1"/>
     <col min="12" max="12" width="60.5" style="34" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1410,14 +1415,14 @@
         <v>12</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -1430,33 +1435,33 @@
         <v>100</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="31">
         <v>2</v>
       </c>
       <c r="K2" s="20">
-        <v>43853</v>
+        <v>44005</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="31" t="s">
         <v>32</v>
       </c>
@@ -1467,16 +1472,12 @@
         <v>100</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>22</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="31">
         <v>1</v>
@@ -1485,15 +1486,15 @@
         <v>43847</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62"/>
-      <c r="B4" s="64"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="31" t="s">
         <v>33</v>
       </c>
@@ -1504,31 +1505,31 @@
         <v>100</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="31">
         <v>1</v>
       </c>
       <c r="K4" s="20">
-        <v>43852</v>
+        <v>44007</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="66" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -1541,16 +1542,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" s="43">
         <v>2</v>
@@ -1559,13 +1560,13 @@
         <v>43859</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
@@ -1576,16 +1577,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="31">
         <v>1</v>
@@ -1594,13 +1595,13 @@
         <v>43852</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:13" ht="24.65" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="32" t="s">
         <v>36</v>
       </c>
@@ -1611,16 +1612,16 @@
         <v>95</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>127</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="32">
         <v>3</v>
@@ -1629,17 +1630,17 @@
         <v>43853</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="40.25" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="47">
         <v>9</v>
@@ -1648,16 +1649,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="47">
         <v>3</v>
@@ -1666,15 +1667,15 @@
         <v>43860</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="64"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
@@ -1685,57 +1686,53 @@
         <v>80</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>22</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="32">
         <v>3</v>
       </c>
       <c r="K9" s="14">
-        <v>43860</v>
+        <v>44008</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1746,11 +1743,11 @@
       <c r="L10" s="39"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="21">
         <v>32</v>
@@ -1759,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
@@ -1779,13 +1776,13 @@
       <c r="L11" s="38"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="62" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="21">
         <v>33</v>
@@ -1794,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
@@ -1814,11 +1811,11 @@
       <c r="L12" s="38"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="65"/>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="21">
         <v>34</v>
@@ -1827,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="21">
         <v>1</v>
@@ -1847,11 +1844,11 @@
       <c r="L13" s="38"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
-      <c r="B14" s="65"/>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="21">
         <v>35</v>
@@ -1860,31 +1857,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="65"/>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="21">
         <v>17</v>
@@ -1893,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15" s="57">
         <v>1</v>
@@ -1913,11 +1910,11 @@
       <c r="L15" s="39"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="65"/>
+    <row r="16" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="21">
         <v>18</v>
@@ -1926,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16" s="28">
         <v>1</v>
@@ -1946,11 +1943,11 @@
       <c r="L16" s="39"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65"/>
+    <row r="17" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
@@ -1959,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="21">
         <v>2</v>
@@ -1978,14 +1975,14 @@
       </c>
       <c r="L17" s="39"/>
       <c r="M17" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="61"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="21">
         <v>37</v>
@@ -1994,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="21">
         <v>1</v>
@@ -2014,22 +2011,22 @@
       <c r="L18" s="38"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A19" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>50</v>
+      <c r="B19" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="25">
         <v>100</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>20</v>
@@ -2038,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J19" s="31">
         <v>1</v>
@@ -2047,17 +2044,17 @@
         <v>43853</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67"/>
-      <c r="B20" s="65"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="31">
         <v>15</v>
@@ -2066,7 +2063,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>20</v>
@@ -2075,7 +2072,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="31">
         <v>2</v>
@@ -2084,22 +2081,22 @@
         <v>43859</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67"/>
-      <c r="B21" s="61"/>
+    <row r="21" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="25">
         <v>100</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>20</v>
@@ -2108,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21" s="31">
         <v>3</v>
@@ -2117,24 +2114,24 @@
         <v>43860</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="25">
         <v>100</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>20</v>
@@ -2143,7 +2140,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="41">
         <v>4</v>
@@ -2152,24 +2149,24 @@
         <v>43860</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="65"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="36">
         <v>100</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>17</v>
@@ -2178,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" s="31">
         <v>1</v>
@@ -2187,17 +2184,17 @@
         <v>43853</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64" t="s">
-        <v>54</v>
+    <row r="24" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="28">
         <v>20</v>
@@ -2206,7 +2203,7 @@
         <v>80</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>23</v>
@@ -2215,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" s="28">
         <v>1</v>
@@ -2224,17 +2221,17 @@
         <v>43861</v>
       </c>
       <c r="L24" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
+    </row>
+    <row r="25" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="28">
         <v>21</v>
@@ -2243,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>23</v>
@@ -2252,7 +2249,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J25" s="28">
         <v>1</v>
@@ -2261,26 +2258,26 @@
         <v>43861</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67"/>
-      <c r="B26" s="58" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="36">
         <v>100</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" s="47" t="s">
         <v>18</v>
@@ -2289,7 +2286,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J26" s="47">
         <v>1</v>
@@ -2298,22 +2295,22 @@
         <v>43859</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="67"/>
-      <c r="B27" s="59"/>
+    <row r="27" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="36">
         <v>100</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G27" s="47" t="s">
         <v>18</v>
@@ -2322,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J27" s="47">
         <v>2</v>
@@ -2331,24 +2328,24 @@
         <v>43859</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="67"/>
-      <c r="B28" s="60" t="s">
-        <v>57</v>
+    <row r="28" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="62" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="36">
         <v>100</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>17</v>
@@ -2357,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28" s="46">
         <v>2</v>
@@ -2366,17 +2363,17 @@
         <v>43861</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="61"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="36">
@@ -2390,56 +2387,56 @@
         <v>22</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J29" s="41"/>
       <c r="K29" s="20">
         <v>43853</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="27"/>
       <c r="F30" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="53" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="14"/>
       <c r="L30" s="39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69"/>
+    <row r="31" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A31" s="69"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="27"/>
       <c r="F31" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="53" t="s">
@@ -2449,20 +2446,20 @@
       <c r="J31" s="32"/>
       <c r="K31" s="14"/>
       <c r="L31" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="67"/>
-      <c r="B32" s="70"/>
+    <row r="32" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A32" s="69"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="27"/>
       <c r="F32" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="53" t="s">
@@ -2472,22 +2469,22 @@
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="D34" s="10"/>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13">
       <c r="B35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13">
       <c r="B36" s="3"/>
       <c r="C36" s="40"/>
       <c r="D36" s="4"/>
@@ -2502,7 +2499,7 @@
       <c r="L36" s="48"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13">
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2511,12 +2508,12 @@
         <v>13</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -2526,64 +2523,64 @@
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13">
       <c r="G41" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13">
       <c r="G42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13">
       <c r="G43" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13">
       <c r="G44" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13">
       <c r="G45" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13">
       <c r="G46" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13">
       <c r="G47" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13">
       <c r="G48" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="0" yWindow="2680" windowWidth="14210" windowHeight="4580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이재기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김유리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조호섭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노현천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김웅희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현두환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +162,6 @@
   </si>
   <si>
     <t>Q &amp; A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황병운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,10 +398,6 @@
   </si>
   <si>
     <t>관리자 강사등록/조회/선택승인/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조준근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1347,7 +1324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1355,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1400,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1415,18 +1392,18 @@
         <v>12</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1">
       <c r="A2" s="64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="31">
         <v>5</v>
@@ -1435,16 +1412,16 @@
         <v>100</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J2" s="31">
         <v>2</v>
@@ -1453,17 +1430,17 @@
         <v>44005</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1">
       <c r="A3" s="64"/>
       <c r="B3" s="66"/>
       <c r="C3" s="31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="31">
         <v>3</v>
@@ -1472,12 +1449,12 @@
         <v>100</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="50"/>
       <c r="I3" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J3" s="31">
         <v>1</v>
@@ -1486,17 +1463,17 @@
         <v>43847</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="31">
         <v>4</v>
@@ -1505,16 +1482,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J4" s="31">
         <v>1</v>
@@ -1523,17 +1500,17 @@
         <v>44007</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="24.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="43">
         <v>6</v>
@@ -1542,16 +1519,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J5" s="43">
         <v>2</v>
@@ -1560,7 +1537,7 @@
         <v>43859</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M5" s="45"/>
     </row>
@@ -1568,7 +1545,7 @@
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="31">
         <v>7</v>
@@ -1577,16 +1554,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J6" s="31">
         <v>1</v>
@@ -1595,7 +1572,7 @@
         <v>43852</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M6" s="20"/>
     </row>
@@ -1603,7 +1580,7 @@
       <c r="A7" s="64"/>
       <c r="B7" s="66"/>
       <c r="C7" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="32">
         <v>8</v>
@@ -1612,16 +1589,16 @@
         <v>95</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J7" s="32">
         <v>3</v>
@@ -1630,17 +1607,17 @@
         <v>43853</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40.25" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="47">
         <v>9</v>
@@ -1649,16 +1626,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="47">
         <v>3</v>
@@ -1667,17 +1644,17 @@
         <v>43860</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="66"/>
       <c r="C9" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="32">
         <v>9</v>
@@ -1686,12 +1663,12 @@
         <v>80</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="51"/>
       <c r="I9" s="32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" s="32">
         <v>3</v>
@@ -1700,39 +1677,39 @@
         <v>44008</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1747,7 +1724,7 @@
       <c r="A11" s="65"/>
       <c r="B11" s="66"/>
       <c r="C11" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="21">
         <v>32</v>
@@ -1756,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
@@ -1779,10 +1756,10 @@
     <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="65"/>
       <c r="B12" s="62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="21">
         <v>33</v>
@@ -1791,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
@@ -1815,7 +1792,7 @@
       <c r="A13" s="65"/>
       <c r="B13" s="67"/>
       <c r="C13" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D13" s="21">
         <v>34</v>
@@ -1824,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J13" s="21">
         <v>1</v>
@@ -1848,7 +1825,7 @@
       <c r="A14" s="65"/>
       <c r="B14" s="67"/>
       <c r="C14" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21">
         <v>35</v>
@@ -1857,22 +1834,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="23"/>
@@ -1881,7 +1858,7 @@
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" s="21">
         <v>17</v>
@@ -1890,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15" s="57">
         <v>1</v>
@@ -1914,7 +1891,7 @@
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="21">
         <v>18</v>
@@ -1923,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J16" s="28">
         <v>1</v>
@@ -1947,7 +1924,7 @@
       <c r="A17" s="65"/>
       <c r="B17" s="67"/>
       <c r="C17" s="43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
@@ -1956,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J17" s="21">
         <v>2</v>
@@ -1975,14 +1952,14 @@
       </c>
       <c r="L17" s="39"/>
       <c r="M17" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1">
       <c r="A18" s="65"/>
       <c r="B18" s="63"/>
       <c r="C18" s="43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="21">
         <v>37</v>
@@ -1991,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J18" s="21">
         <v>1</v>
@@ -2013,29 +1990,29 @@
     </row>
     <row r="19" spans="1:13" ht="24.75" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="25">
         <v>100</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>23</v>
-      </c>
       <c r="I19" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J19" s="31">
         <v>1</v>
@@ -2044,17 +2021,17 @@
         <v>43853</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="24.75" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="67"/>
       <c r="C20" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D20" s="31">
         <v>15</v>
@@ -2063,16 +2040,16 @@
         <v>100</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="50" t="s">
-        <v>23</v>
-      </c>
       <c r="I20" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J20" s="31">
         <v>2</v>
@@ -2081,7 +2058,7 @@
         <v>43859</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M20" s="23"/>
     </row>
@@ -2089,23 +2066,23 @@
       <c r="A21" s="69"/>
       <c r="B21" s="63"/>
       <c r="C21" s="35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="25">
         <v>100</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>23</v>
-      </c>
       <c r="I21" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J21" s="31">
         <v>3</v>
@@ -2114,33 +2091,33 @@
         <v>43860</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="25">
         <v>100</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="50" t="s">
-        <v>23</v>
-      </c>
       <c r="I22" s="41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J22" s="41">
         <v>4</v>
@@ -2149,33 +2126,33 @@
         <v>43860</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24.75" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="67"/>
       <c r="C23" s="31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="36">
         <v>100</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J23" s="31">
         <v>1</v>
@@ -2184,17 +2161,17 @@
         <v>43853</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="66" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24" s="28">
         <v>20</v>
@@ -2203,16 +2180,16 @@
         <v>80</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J24" s="28">
         <v>1</v>
@@ -2221,17 +2198,17 @@
         <v>43861</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="66"/>
       <c r="C25" s="32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="28">
         <v>21</v>
@@ -2240,16 +2217,16 @@
         <v>80</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J25" s="28">
         <v>1</v>
@@ -2258,35 +2235,35 @@
         <v>43861</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="36">
         <v>100</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J26" s="47">
         <v>1</v>
@@ -2295,7 +2272,7 @@
         <v>43859</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M26" s="23"/>
     </row>
@@ -2303,23 +2280,23 @@
       <c r="A27" s="69"/>
       <c r="B27" s="61"/>
       <c r="C27" s="35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="36">
         <v>100</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J27" s="47">
         <v>2</v>
@@ -2328,33 +2305,33 @@
         <v>43859</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="36">
         <v>100</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J28" s="46">
         <v>2</v>
@@ -2363,17 +2340,17 @@
         <v>43861</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="63"/>
       <c r="C29" s="41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="36">
@@ -2381,49 +2358,49 @@
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J29" s="41"/>
       <c r="K29" s="20">
         <v>43853</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="24.75" customHeight="1">
       <c r="A30" s="69"/>
       <c r="B30" s="70" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="27"/>
       <c r="F30" s="32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="14"/>
       <c r="L30" s="39" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M30" s="14"/>
     </row>
@@ -2431,22 +2408,22 @@
       <c r="A31" s="69"/>
       <c r="B31" s="71"/>
       <c r="C31" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="27"/>
       <c r="F31" s="32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="14"/>
       <c r="L31" s="39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M31" s="14"/>
     </row>
@@ -2454,25 +2431,25 @@
       <c r="A32" s="69"/>
       <c r="B32" s="72"/>
       <c r="C32" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="27"/>
       <c r="F32" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -2508,12 +2485,12 @@
         <v>13</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -2522,66 +2499,6 @@
         <v>8</v>
       </c>
       <c r="E38" s="12"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="G41" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="G42" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="G43" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="G44" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="G45" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="G47" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="G48" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" s="8" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,7 +1323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1334,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:G52"/>
+    <sheetView tabSelected="1" topLeftCell="J21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2448,9 +2447,7 @@
       <c r="L32" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="M32" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="M32" s="14"/>
     </row>
     <row r="34" spans="2:13">
       <c r="D34" s="10"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2680" windowWidth="14210" windowHeight="4580"/>
+    <workbookView xWindow="0" yWindow="2676" windowWidth="14208" windowHeight="4584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,30 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조호섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미혜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김웅희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손화성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정영욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,18 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수강목록관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설문관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인원관리</t>
   </si>
   <si>
@@ -236,14 +204,6 @@
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강의목록 및 학생 설문조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오류 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,57 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성 체크 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담정보 수정시 상담내용 스트 내에 안뿌려짐, 상담정보 신규등록 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상정보 수정 미구현, 신규등록 미구현, 검색 유효성 체크 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사명 검색 서비스 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이징 처리 미비,강의실-&gt;강의실 번호 수정필요, 장비등록 crud 미비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제없음</t>
-  </si>
-  <si>
-    <t>강좌명이나 날짜로 검색할 수 있으면 좋을듯 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강목록이 제대로 출력이 안됨</t>
-  </si>
-  <si>
-    <t>강의번호가 없어서 과제제출이 안됨</t>
-  </si>
-  <si>
-    <t>문제업음</t>
-  </si>
-  <si>
-    <t>차트가 좀 디테일했으면 좋겠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안만들어짐</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 문제해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,7 +420,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대체로 문제없음, 우선순위 후순위</t>
+    <t>오성철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 취업정보 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,9 +830,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,9 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,6 +870,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,21 +1250,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
+    <col min="3" max="3" width="39.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
     <col min="6" max="6" width="56.5" customWidth="1"/>
-    <col min="7" max="8" width="18.6640625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="18.69921875" style="8" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.08203125" customWidth="1"/>
+    <col min="10" max="10" width="16.09765625" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="8" customWidth="1"/>
     <col min="12" max="12" width="60.5" style="34" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="8" customWidth="1"/>
@@ -1376,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1307,19 @@
       <c r="L1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>110</v>
+      <c r="M1" s="53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1">
       <c r="A2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="31">
         <v>5</v>
@@ -1411,16 +1328,16 @@
         <v>100</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J2" s="31">
         <v>2</v>
@@ -1428,18 +1345,14 @@
       <c r="K2" s="20">
         <v>44005</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1">
       <c r="A3" s="64"/>
       <c r="B3" s="66"/>
       <c r="C3" s="31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="31">
         <v>3</v>
@@ -1448,12 +1361,12 @@
         <v>100</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G3" s="31"/>
-      <c r="H3" s="50"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J3" s="31">
         <v>1</v>
@@ -1461,18 +1374,14 @@
       <c r="K3" s="20">
         <v>43847</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="31">
         <v>4</v>
@@ -1481,16 +1390,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J4" s="31">
         <v>1</v>
@@ -1498,53 +1407,49 @@
       <c r="K4" s="20">
         <v>44007</v>
       </c>
-      <c r="L4" s="39" t="s">
-        <v>103</v>
-      </c>
+      <c r="L4" s="39"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="24.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="43">
+        <v>20</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="42">
         <v>6</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>100</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="43">
+      <c r="F5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="42">
         <v>2</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="44">
         <v>43859</v>
       </c>
-      <c r="L5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="45"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" s="31">
         <v>7</v>
@@ -1553,16 +1458,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J6" s="31">
         <v>1</v>
@@ -1570,16 +1475,14 @@
       <c r="K6" s="20">
         <v>43852</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>105</v>
-      </c>
+      <c r="L6" s="39"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="24.65" customHeight="1">
+    <row r="7" spans="1:13" ht="24.6" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="66"/>
       <c r="C7" s="32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="32">
         <v>8</v>
@@ -1588,16 +1491,16 @@
         <v>95</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>121</v>
+        <v>35</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J7" s="32">
         <v>3</v>
@@ -1605,55 +1508,47 @@
       <c r="K7" s="14">
         <v>43853</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="40.25" customHeight="1">
+      <c r="L7" s="39"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="47">
+        <v>56</v>
+      </c>
+      <c r="D8" s="45">
         <v>9</v>
       </c>
       <c r="E8" s="25">
         <v>100</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="47">
+      <c r="F8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="45">
         <v>3</v>
       </c>
       <c r="K8" s="20">
         <v>43860</v>
       </c>
-      <c r="L8" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="66"/>
       <c r="C9" s="32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="32">
         <v>9</v>
@@ -1662,12 +1557,12 @@
         <v>80</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J9" s="32">
         <v>3</v>
@@ -1675,40 +1570,36 @@
       <c r="K9" s="14">
         <v>44008</v>
       </c>
-      <c r="L9" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1723,7 +1614,7 @@
       <c r="A11" s="65"/>
       <c r="B11" s="66"/>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D11" s="21">
         <v>32</v>
@@ -1732,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
@@ -1755,10 +1646,10 @@
     <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="65"/>
       <c r="B12" s="62" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D12" s="21">
         <v>33</v>
@@ -1767,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
@@ -1791,7 +1682,7 @@
       <c r="A13" s="65"/>
       <c r="B13" s="67"/>
       <c r="C13" s="21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D13" s="21">
         <v>34</v>
@@ -1800,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J13" s="21">
         <v>1</v>
@@ -1824,7 +1715,7 @@
       <c r="A14" s="65"/>
       <c r="B14" s="67"/>
       <c r="C14" s="21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D14" s="21">
         <v>35</v>
@@ -1833,22 +1724,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="23"/>
@@ -1857,7 +1748,7 @@
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D15" s="21">
         <v>17</v>
@@ -1865,19 +1756,19 @@
       <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="57">
+      <c r="F15" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="55">
         <v>1</v>
       </c>
       <c r="K15" s="23">
@@ -1890,7 +1781,7 @@
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D16" s="21">
         <v>18</v>
@@ -1899,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16" s="28">
         <v>1</v>
@@ -1922,8 +1813,8 @@
     <row r="17" spans="1:13" ht="24.75" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="43" t="s">
-        <v>74</v>
+      <c r="C17" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
@@ -1932,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="H17" s="28" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J17" s="21">
         <v>2</v>
@@ -1950,15 +1841,13 @@
         <v>44005</v>
       </c>
       <c r="L17" s="39"/>
-      <c r="M17" s="23" t="s">
-        <v>109</v>
-      </c>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1">
       <c r="A18" s="65"/>
       <c r="B18" s="63"/>
-      <c r="C18" s="43" t="s">
-        <v>75</v>
+      <c r="C18" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="21">
         <v>37</v>
@@ -1967,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J18" s="21">
         <v>1</v>
@@ -1989,188 +1878,162 @@
     </row>
     <row r="19" spans="1:13" ht="24.75" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="58"/>
       <c r="E19" s="25">
         <v>100</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="31">
-        <v>1</v>
+      <c r="F19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="58">
+        <v>3</v>
       </c>
       <c r="K19" s="20">
-        <v>43853</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="56" t="s">
-        <v>109</v>
-      </c>
+        <v>44007</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="1:13" ht="24.75" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="67"/>
       <c r="C20" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="31">
+        <v>52</v>
+      </c>
+      <c r="D20" s="58">
         <v>15</v>
       </c>
       <c r="E20" s="25">
         <v>100</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="31">
-        <v>2</v>
+      <c r="F20" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="58">
+        <v>1</v>
       </c>
       <c r="K20" s="23">
-        <v>43859</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>97</v>
-      </c>
+        <v>44003</v>
+      </c>
+      <c r="L20" s="38"/>
       <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" ht="24.75" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="63"/>
       <c r="C21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="D21" s="58">
+        <v>16</v>
+      </c>
       <c r="E21" s="25">
         <v>100</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="31">
-        <v>3</v>
+      <c r="F21" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="58">
+        <v>2</v>
       </c>
       <c r="K21" s="23">
-        <v>43860</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>98</v>
-      </c>
+        <v>44004</v>
+      </c>
+      <c r="L21" s="38"/>
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="58">
+        <v>12</v>
+      </c>
       <c r="E22" s="25">
         <v>100</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="41">
-        <v>4</v>
-      </c>
-      <c r="K22" s="20">
-        <v>43860</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="F22" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="58">
+        <v>3</v>
+      </c>
+      <c r="K22" s="23">
+        <v>44005</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="24.75" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="36">
-        <v>100</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="31">
-        <v>1</v>
-      </c>
-      <c r="K23" s="20">
-        <v>43853</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>99</v>
-      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="28">
         <v>20</v>
@@ -2179,35 +2042,31 @@
         <v>80</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J24" s="28">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14">
-        <v>43861</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>109</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K24" s="23">
+        <v>44004</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="66"/>
-      <c r="C25" s="32" t="s">
-        <v>49</v>
+      <c r="C25" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="28">
         <v>21</v>
@@ -2216,237 +2075,219 @@
         <v>80</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J25" s="28">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14">
-        <v>43861</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>109</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>44004</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="60" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="47"/>
+        <v>60</v>
+      </c>
+      <c r="D26" s="58">
+        <v>23</v>
+      </c>
       <c r="E26" s="36">
         <v>100</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="47">
-        <v>1</v>
+      <c r="F26" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="58">
+        <v>2</v>
       </c>
       <c r="K26" s="23">
-        <v>43859</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>101</v>
-      </c>
+        <v>44005</v>
+      </c>
+      <c r="L26" s="38"/>
       <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="61"/>
       <c r="C27" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="47"/>
+        <v>61</v>
+      </c>
+      <c r="D27" s="58">
+        <v>23</v>
+      </c>
       <c r="E27" s="36">
         <v>100</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="47">
+      <c r="F27" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="58">
         <v>2</v>
       </c>
       <c r="K27" s="23">
-        <v>43859</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>101</v>
-      </c>
+        <v>44005</v>
+      </c>
+      <c r="L27" s="38"/>
       <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="62" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="46"/>
+        <v>62</v>
+      </c>
+      <c r="D28" s="58">
+        <v>25</v>
+      </c>
       <c r="E28" s="36">
         <v>100</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="46">
-        <v>2</v>
+      <c r="F28" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="58">
+        <v>1</v>
       </c>
       <c r="K28" s="23">
-        <v>43861</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>109</v>
-      </c>
+        <v>44008</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="63"/>
-      <c r="C29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="41"/>
+      <c r="C29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="58">
+        <v>24</v>
+      </c>
       <c r="E29" s="36">
         <v>100</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="41"/>
+      <c r="F29" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="58">
+        <v>1</v>
+      </c>
       <c r="K29" s="20">
-        <v>43853</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>109</v>
-      </c>
+        <v>44001</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" ht="24.75" customHeight="1">
       <c r="A30" s="69"/>
       <c r="B30" s="70" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="27"/>
       <c r="F30" s="32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G30" s="32"/>
-      <c r="H30" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="32"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="39" t="s">
-        <v>107</v>
-      </c>
+      <c r="L30" s="39"/>
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" ht="24.75" customHeight="1">
       <c r="A31" s="69"/>
       <c r="B31" s="71"/>
       <c r="C31" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="27"/>
       <c r="F31" s="32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G31" s="32"/>
-      <c r="H31" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="H31" s="51"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="39" t="s">
-        <v>108</v>
-      </c>
+      <c r="L31" s="39"/>
       <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" ht="24.75" customHeight="1">
       <c r="A32" s="69"/>
       <c r="B32" s="72"/>
       <c r="C32" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="27"/>
       <c r="F32" s="13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G32" s="32"/>
-      <c r="H32" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="H32" s="51"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="L32" s="39"/>
       <c r="M32" s="14"/>
     </row>
     <row r="34" spans="2:13">
@@ -2470,7 +2311,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="48"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:13">
@@ -2481,13 +2322,13 @@
       <c r="K37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="49" t="s">
-        <v>94</v>
+      <c r="L37" s="47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>학생 취업정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2298,6 +2302,9 @@
       <c r="B35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="18"/>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="3"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,14 @@
   </si>
   <si>
     <t>대체로 문제없음, 우선순위 후순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,9 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,6 +970,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1390,7 +1398,7 @@
       <c r="L1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="54" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1413,10 +1421,10 @@
       <c r="F2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -1459,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="20">
-        <v>43847</v>
+        <v>44005</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>102</v>
@@ -1483,10 +1491,10 @@
       <c r="F4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I4" s="31" t="s">
@@ -1533,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="45">
-        <v>43859</v>
+        <v>44005</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>104</v>
@@ -1555,10 +1563,10 @@
       <c r="F6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>122</v>
       </c>
       <c r="I6" s="31" t="s">
@@ -1568,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="20">
-        <v>43852</v>
+        <v>44005</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>105</v>
@@ -1590,10 +1598,10 @@
       <c r="F7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>121</v>
       </c>
       <c r="I7" s="32" t="s">
@@ -1603,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="14">
-        <v>43853</v>
+        <v>44006</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>102</v>
@@ -1624,13 +1632,13 @@
       <c r="E8" s="25">
         <v>100</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="57" t="s">
         <v>122</v>
       </c>
       <c r="I8" s="47" t="s">
@@ -1640,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="20">
-        <v>43860</v>
+        <v>44006</v>
       </c>
       <c r="L8" s="39" t="s">
         <v>102</v>
@@ -1664,8 +1672,12 @@
       <c r="F9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="51"/>
+      <c r="G9" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>125</v>
+      </c>
       <c r="I9" s="32" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="14">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="L9" s="39" t="s">
         <v>123</v>
@@ -1865,19 +1877,19 @@
       <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="56">
         <v>1</v>
       </c>
       <c r="K15" s="23">
@@ -2019,10 +2031,10 @@
       <c r="K19" s="20">
         <v>43853</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L19" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="55" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2390,7 +2402,7 @@
         <v>81</v>
       </c>
       <c r="G30" s="32"/>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="39" t="s">
@@ -2415,7 +2427,7 @@
         <v>80</v>
       </c>
       <c r="G31" s="32"/>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="32"/>
@@ -2438,7 +2450,7 @@
         <v>82</v>
       </c>
       <c r="G32" s="32"/>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="13"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywj95\git\happyjob\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DC592-2CE3-4D2F-B164-19240580FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2676" windowWidth="14208" windowHeight="4584"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강인원/강의목록/진도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,14 +274,6 @@
   </si>
   <si>
     <t>학생별 이력서 출력 (팝업 처리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험 결과 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,14 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시험 목록,시험 검색,응시자 목록상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사 수강 목록/학생 목록/평가 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수강목록 조회 및 휴강 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,18 +370,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">처음은 전체 대상 60점 이하 과락 과락 대상으로 재시험 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의계획서 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진도관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,18 +407,38 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강인원/강의목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여학생 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사 설문조사 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,21 +1234,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.09765625" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
@@ -1274,7 +1264,7 @@
     <col min="13" max="13" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1312,10 +1302,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="64" t="s">
         <v>15</v>
       </c>
@@ -1335,10 +1325,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>28</v>
@@ -1352,7 +1342,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="64"/>
       <c r="B3" s="66"/>
       <c r="C3" s="31" t="s">
@@ -1381,7 +1371,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1">
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="31" t="s">
@@ -1397,10 +1387,10 @@
         <v>32</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>29</v>
@@ -1414,7 +1404,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1">
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="64"/>
       <c r="B5" s="66" t="s">
         <v>20</v>
@@ -1432,10 +1422,10 @@
         <v>33</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>29</v>
@@ -1449,7 +1439,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1">
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="31" t="s">
@@ -1465,10 +1455,10 @@
         <v>34</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>28</v>
@@ -1482,7 +1472,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1">
+    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="64"/>
       <c r="B7" s="66"/>
       <c r="C7" s="32" t="s">
@@ -1498,10 +1488,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>28</v>
@@ -1515,11 +1505,11 @@
       <c r="L7" s="39"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="45">
         <v>9</v>
@@ -1528,13 +1518,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I8" s="45" t="s">
         <v>29</v>
@@ -1548,7 +1538,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1">
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="64"/>
       <c r="B9" s="66"/>
       <c r="C9" s="32" t="s">
@@ -1577,7 +1567,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+    <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="65" t="s">
         <v>16</v>
       </c>
@@ -1585,22 +1575,22 @@
         <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E10" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>28</v>
@@ -1609,31 +1599,31 @@
         <v>1</v>
       </c>
       <c r="K10" s="23">
-        <v>44008</v>
+        <v>44005</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+    <row r="11" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="65"/>
       <c r="B11" s="66"/>
       <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>28</v>
@@ -1647,28 +1637,28 @@
       <c r="L11" s="38"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1">
+    <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="65"/>
       <c r="B12" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D12" s="21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>28</v>
@@ -1682,32 +1672,32 @@
       <c r="L12" s="38"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1">
+    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="65"/>
       <c r="B13" s="67"/>
       <c r="C13" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" s="21">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="26">
         <v>0</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="23">
         <v>44008</v>
@@ -1715,26 +1705,26 @@
       <c r="L13" s="38"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1">
+    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="65"/>
       <c r="B14" s="67"/>
       <c r="C14" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="26">
         <v>0</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>28</v>
@@ -1743,31 +1733,31 @@
         <v>2</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="21">
         <v>17</v>
       </c>
       <c r="E15" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>29</v>
@@ -1776,37 +1766,37 @@
         <v>1</v>
       </c>
       <c r="K15" s="23">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="L15" s="39"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="24.75" customHeight="1">
+    <row r="16" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E16" s="26">
         <v>0</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="23">
         <v>44008</v>
@@ -1814,11 +1804,11 @@
       <c r="L16" s="39"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="24.75" customHeight="1">
+    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="65"/>
-      <c r="B17" s="67"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="42" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
@@ -1827,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>28</v>
@@ -1842,217 +1832,217 @@
         <v>2</v>
       </c>
       <c r="K17" s="23">
-        <v>44005</v>
-      </c>
-      <c r="L17" s="39"/>
+        <v>44008</v>
+      </c>
+      <c r="L17" s="38"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="21">
+    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
-      <c r="K18" s="23">
-        <v>44005</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A19" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="C18" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="25">
+        <v>100</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="58">
+        <v>3</v>
+      </c>
+      <c r="K18" s="20">
+        <v>44007</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="58">
+        <v>15</v>
+      </c>
       <c r="E19" s="25">
         <v>100</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J19" s="58">
-        <v>3</v>
-      </c>
-      <c r="K19" s="20">
-        <v>44007</v>
-      </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="54"/>
-    </row>
-    <row r="20" spans="1:13" ht="24.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <v>44003</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="69"/>
-      <c r="B20" s="67"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" s="58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="25">
         <v>100</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="23">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1">
+    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="35" t="s">
-        <v>57</v>
+      <c r="B21" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="58">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" s="25">
         <v>100</v>
       </c>
       <c r="F21" s="58" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I21" s="58" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="23">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="L21" s="38"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1">
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="69"/>
-      <c r="B22" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="58">
-        <v>12</v>
-      </c>
-      <c r="E22" s="25">
-        <v>100</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="58">
-        <v>3</v>
-      </c>
-      <c r="K22" s="23">
-        <v>44005</v>
-      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="38"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1">
+    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="69"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" ht="24.75" customHeight="1">
+      <c r="B23" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="28">
+        <v>20</v>
+      </c>
+      <c r="E23" s="29">
+        <v>80</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="28">
+        <v>2</v>
+      </c>
+      <c r="K23" s="23">
+        <v>44004</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="69"/>
-      <c r="B24" s="66" t="s">
-        <v>39</v>
-      </c>
+      <c r="B24" s="66"/>
       <c r="C24" s="59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="29">
         <v>80</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>28</v>
@@ -2063,47 +2053,47 @@
       <c r="K24" s="23">
         <v>44004</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1">
+    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="69"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="28">
-        <v>21</v>
-      </c>
-      <c r="E25" s="29">
-        <v>80</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="28" t="s">
+      <c r="B25" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="58">
+        <v>23</v>
+      </c>
+      <c r="E25" s="36">
         <v>100</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="28">
+      <c r="F25" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="58">
         <v>2</v>
       </c>
       <c r="K25" s="23">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="L25" s="38"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="24.75" customHeight="1">
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="69"/>
-      <c r="B26" s="60" t="s">
-        <v>59</v>
-      </c>
+      <c r="B26" s="61"/>
       <c r="C26" s="35" t="s">
         <v>60</v>
       </c>
@@ -2114,13 +2104,13 @@
         <v>100</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I26" s="58" t="s">
         <v>44</v>
@@ -2134,232 +2124,199 @@
       <c r="L26" s="38"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1">
+    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="69"/>
-      <c r="B27" s="61"/>
+      <c r="B27" s="62" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="35" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="58">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" s="36">
         <v>100</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>98</v>
+        <v>62</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J27" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="23">
-        <v>44005</v>
-      </c>
-      <c r="L27" s="38"/>
+        <v>44008</v>
+      </c>
+      <c r="L27" s="39"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:13" ht="24.75" customHeight="1">
+    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="69"/>
-      <c r="B28" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>62</v>
+      <c r="B28" s="63"/>
+      <c r="C28" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="36">
         <v>100</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>91</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J28" s="58">
         <v>1</v>
       </c>
-      <c r="K28" s="23">
-        <v>44008</v>
+      <c r="K28" s="20">
+        <v>44001</v>
       </c>
       <c r="L28" s="39"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" ht="24.75" customHeight="1">
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="69"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="58">
-        <v>24</v>
-      </c>
-      <c r="E29" s="36">
-        <v>100</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="58">
-        <v>1</v>
-      </c>
-      <c r="K29" s="20">
-        <v>44001</v>
-      </c>
+      <c r="B29" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="39"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="24.75" customHeight="1">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="69"/>
-      <c r="B30" s="70" t="s">
-        <v>67</v>
-      </c>
+      <c r="B30" s="71"/>
       <c r="C30" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="27"/>
       <c r="F30" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="39"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="14"/>
       <c r="L30" s="39"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="24.75" customHeight="1">
+    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="69"/>
-      <c r="B31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="32" t="s">
-        <v>70</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31" s="39"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="D34" s="10"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="18"/>
-      <c r="I35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="3"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="19"/>
-      <c r="G36" s="7" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D33" s="10"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="18"/>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="19"/>
+      <c r="G35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="12"/>
+      <c r="K36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E37" s="12"/>
-      <c r="K37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A10:A17"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="B29:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywj95\git\happyjob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DC592-2CE3-4D2F-B164-19240580FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB27A2-4E89-4487-A8DD-91B6480D48A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1040,7 +1040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywj95\git\happyjob\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB27A2-4E89-4487-A8DD-91B6480D48A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강목록 조회 및 휴강 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 학생등록/조회/선택승인/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-06-026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의계획서 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,18 +413,30 @@
   </si>
   <si>
     <t>강사 설문조사 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 회원가입/강사 회원등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,12 +771,6 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,9 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -809,9 +798,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,9 +816,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,6 +859,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1040,7 +1032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1234,21 +1226,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="23.09765625" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" customWidth="1"/>
@@ -1260,11 +1252,11 @@
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="16.09765625" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="60.5" style="34" customWidth="1"/>
+    <col min="12" max="12" width="60.5" style="31" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1298,299 +1290,303 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64" t="s">
+      <c r="M1" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>5</v>
       </c>
-      <c r="E2" s="25">
-        <v>100</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="28">
         <v>2</v>
       </c>
       <c r="K2" s="20">
         <v>44005</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="31" t="s">
+    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>3</v>
       </c>
-      <c r="E3" s="25">
-        <v>100</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="31" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="28">
         <v>1</v>
       </c>
       <c r="K3" s="20">
-        <v>43847</v>
-      </c>
-      <c r="L3" s="39"/>
+        <v>44005</v>
+      </c>
+      <c r="L3" s="35"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="31" t="s">
+    <row r="4" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <v>4</v>
       </c>
-      <c r="E4" s="25">
-        <v>100</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="31" t="s">
+      <c r="G4" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="28">
         <v>1</v>
       </c>
       <c r="K4" s="20">
         <v>44007</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="64"/>
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A5" s="62"/>
+      <c r="B5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="38">
         <v>6</v>
       </c>
-      <c r="E5" s="43">
-        <v>100</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="42" t="s">
+      <c r="G5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="38">
         <v>2</v>
       </c>
-      <c r="K5" s="44">
-        <v>43859</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="31" t="s">
+      <c r="K5" s="39">
+        <v>44005</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>7</v>
       </c>
-      <c r="E6" s="25">
-        <v>100</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="31" t="s">
+      <c r="G6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <v>1</v>
       </c>
       <c r="K6" s="20">
-        <v>43852</v>
-      </c>
-      <c r="L6" s="39"/>
+        <v>44005</v>
+      </c>
+      <c r="L6" s="35"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="32" t="s">
+    <row r="7" spans="1:13" ht="24.6" customHeight="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>8</v>
       </c>
       <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="29">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>44006</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="40">
+        <v>3</v>
+      </c>
+      <c r="K8" s="20">
+        <v>44006</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="29">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="29">
+        <v>3</v>
+      </c>
+      <c r="K9" s="14">
+        <v>44007</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32">
-        <v>3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>43853</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="45">
-        <v>9</v>
-      </c>
-      <c r="E8" s="25">
-        <v>100</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="45">
-        <v>3</v>
-      </c>
-      <c r="K8" s="20">
-        <v>43860</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="32">
-        <v>9</v>
-      </c>
-      <c r="E9" s="24">
-        <v>80</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="32">
-        <v>3</v>
-      </c>
-      <c r="K9" s="14">
-        <v>44008</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="26">
-        <v>50</v>
+      <c r="E10" s="24">
+        <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>28</v>
@@ -1601,29 +1597,29 @@
       <c r="K10" s="23">
         <v>44005</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:13" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="21">
         <v>31</v>
       </c>
-      <c r="E11" s="26">
-        <v>50</v>
+      <c r="E11" s="24">
+        <v>0</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>28</v>
@@ -1634,31 +1630,31 @@
       <c r="K11" s="23">
         <v>44005</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="65"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:13" s="27" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="21">
         <v>32</v>
       </c>
-      <c r="E12" s="26">
-        <v>60</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>96</v>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>28</v>
@@ -1669,29 +1665,29 @@
       <c r="K12" s="23">
         <v>44005</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="65"/>
-      <c r="B13" s="67"/>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="21">
         <v>33</v>
       </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>87</v>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>28</v>
@@ -1702,29 +1698,29 @@
       <c r="K13" s="23">
         <v>44008</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="65"/>
-      <c r="B14" s="67"/>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="21">
         <v>34</v>
       </c>
-      <c r="E14" s="26">
-        <v>0</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>28</v>
@@ -1732,98 +1728,98 @@
       <c r="J14" s="21">
         <v>2</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="39"/>
+      <c r="K14" s="23">
+        <v>44008</v>
+      </c>
+      <c r="L14" s="35"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65"/>
-      <c r="B15" s="67"/>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="21">
         <v>17</v>
       </c>
-      <c r="E15" s="26">
-        <v>30</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="55" t="s">
+      <c r="G15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="49">
         <v>1</v>
       </c>
       <c r="K15" s="23">
         <v>44005</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="65"/>
-      <c r="B16" s="67"/>
+    <row r="16" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="21">
         <v>35</v>
       </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <v>2</v>
       </c>
       <c r="K16" s="23">
         <v>44008</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="65"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="42" t="s">
-        <v>99</v>
+    <row r="17" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
       </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>100</v>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>28</v>
@@ -1834,438 +1830,458 @@
       <c r="K17" s="23">
         <v>44008</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A18" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="25">
-        <v>100</v>
-      </c>
-      <c r="F18" s="58" t="s">
+      <c r="D18" s="52">
+        <v>14</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="58" t="s">
+      <c r="G18" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="52">
         <v>3</v>
       </c>
       <c r="K18" s="20">
         <v>44007</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="54"/>
-    </row>
-    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="69"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="35" t="s">
+      <c r="L18" s="46"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="52">
         <v>15</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="52">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <v>44004</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A20" s="67"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="52">
+        <v>16</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="52">
+        <v>2</v>
+      </c>
+      <c r="K20" s="23">
+        <v>44006</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A21" s="67"/>
+      <c r="B21" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="52">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="58" t="s">
+      <c r="G21" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J21" s="52">
+        <v>3</v>
+      </c>
+      <c r="K21" s="23">
+        <v>44007</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="26">
+        <v>19</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="26">
         <v>1</v>
       </c>
-      <c r="K19" s="23">
-        <v>44003</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="58">
-        <v>16</v>
-      </c>
-      <c r="E20" s="25">
-        <v>100</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="58" t="s">
+      <c r="K22" s="23">
+        <v>44001</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="26">
+        <v>20</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="58">
-        <v>2</v>
-      </c>
-      <c r="K20" s="23">
-        <v>44004</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="58">
-        <v>12</v>
-      </c>
-      <c r="E21" s="25">
-        <v>100</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="58">
+      <c r="J23" s="26">
         <v>3</v>
-      </c>
-      <c r="K21" s="23">
-        <v>44005</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="28">
-        <v>20</v>
-      </c>
-      <c r="E23" s="29">
-        <v>80</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="28">
-        <v>2</v>
       </c>
       <c r="K23" s="23">
         <v>44004</v>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="59" t="s">
+    <row r="24" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A24" s="67"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="26">
         <v>21</v>
       </c>
-      <c r="E24" s="29">
-        <v>80</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="28" t="s">
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="28">
-        <v>2</v>
+      <c r="J24" s="26">
+        <v>3</v>
       </c>
       <c r="K24" s="23">
         <v>44004</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="69"/>
-      <c r="B25" s="60" t="s">
+    <row r="25" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A25" s="67"/>
+      <c r="B25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="52">
         <v>23</v>
       </c>
-      <c r="E25" s="36">
-        <v>100</v>
-      </c>
-      <c r="F25" s="58" t="s">
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="58" t="s">
+      <c r="G25" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="52">
         <v>2</v>
       </c>
       <c r="K25" s="23">
         <v>44005</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="69"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="35" t="s">
+    <row r="26" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="52">
         <v>23</v>
       </c>
-      <c r="E26" s="36">
-        <v>100</v>
-      </c>
-      <c r="F26" s="58" t="s">
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="58" t="s">
+      <c r="G26" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="52">
         <v>2</v>
       </c>
       <c r="K26" s="23">
         <v>44005</v>
       </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="69"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="52">
         <v>25</v>
       </c>
-      <c r="E27" s="36">
-        <v>100</v>
-      </c>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="58" t="s">
+      <c r="G27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="58">
-        <v>1</v>
+      <c r="J27" s="52">
+        <v>2</v>
       </c>
       <c r="K27" s="23">
         <v>44008</v>
       </c>
-      <c r="L27" s="39"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="69"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="58" t="s">
+    <row r="28" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A28" s="67"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="52">
         <v>24</v>
       </c>
-      <c r="E28" s="36">
-        <v>100</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="58" t="s">
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="52">
         <v>1</v>
       </c>
       <c r="K28" s="20">
         <v>44001</v>
       </c>
-      <c r="L28" s="39"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="20"/>
     </row>
-    <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="32" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="32"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="39"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="69"/>
-      <c r="B30" s="71"/>
+    <row r="30" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="32" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="39"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72"/>
+    <row r="31" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A31" s="67"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="39"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13">
       <c r="D33" s="10"/>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13">
       <c r="B34" s="10"/>
       <c r="D34" s="9"/>
       <c r="E34" s="18"/>
       <c r="I34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="3"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="4"/>
       <c r="E35" s="19"/>
       <c r="G35" s="7" t="s">
@@ -2275,10 +2291,10 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="46"/>
+      <c r="L35" s="41"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13">
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2286,11 +2302,11 @@
       <c r="K36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L36" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,17 +2319,16 @@
       <c r="E37" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A18:A31"/>
     <mergeCell ref="B29:B31"/>

--- a/lms - 통합 - 20200212(테스트 진척도) .xlsx
+++ b/lms - 통합 - 20200212(테스트 진척도) .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,6 @@
   </si>
   <si>
     <t>학생 취업정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1226,7 +1222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1236,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1574,7 +1570,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="24">
         <v>0</v>
@@ -1639,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="21">
         <v>32</v>
@@ -1648,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>83</v>
@@ -1780,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>82</v>
@@ -1804,7 +1800,7 @@
       <c r="A17" s="63"/>
       <c r="B17" s="61"/>
       <c r="C17" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="21">
         <v>36</v>
@@ -1813,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>80</v>
@@ -1951,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="52" t="s">
         <v>90</v>
@@ -1977,7 +1973,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="26">
         <v>19</v>
@@ -1986,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>91</v>
@@ -2275,9 +2271,6 @@
       <c r="B34" s="10"/>
       <c r="D34" s="9"/>
       <c r="E34" s="18"/>
-      <c r="I34" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="3"/>
